--- a/src/test/DataSheets/Membersummary.xlsx
+++ b/src/test/DataSheets/Membersummary.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Subscriber ID:</t>
   </si>
@@ -32,6 +31,39 @@
   </si>
   <si>
     <t>Language:</t>
+  </si>
+  <si>
+    <t>Address:</t>
+  </si>
+  <si>
+    <t>Phone:</t>
+  </si>
+  <si>
+    <t>Time Zone:</t>
+  </si>
+  <si>
+    <t>View PHI:</t>
+  </si>
+  <si>
+    <t>Secondary Contacts:</t>
+  </si>
+  <si>
+    <t>Placement:</t>
+  </si>
+  <si>
+    <t>Placement Type:</t>
+  </si>
+  <si>
+    <t>PCP:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACO Network Name: </t>
+  </si>
+  <si>
+    <t>Opt Out:</t>
+  </si>
+  <si>
+    <t>Medical Coverage:</t>
   </si>
 </sst>
 </file>
@@ -370,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,6 +436,61 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/DataSheets/Membersummary.xlsx
+++ b/src/test/DataSheets/Membersummary.xlsx
@@ -57,13 +57,13 @@
     <t>PCP:</t>
   </si>
   <si>
+    <t>Opt Out:</t>
+  </si>
+  <si>
+    <t>Medical Coverage:</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACO Network Name: </t>
-  </si>
-  <si>
-    <t>Opt Out:</t>
-  </si>
-  <si>
-    <t>Medical Coverage:</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,17 +480,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/DataSheets/Membersummary.xlsx
+++ b/src/test/DataSheets/Membersummary.xlsx
@@ -63,7 +63,7 @@
     <t>Medical Coverage:</t>
   </si>
   <si>
-    <t xml:space="preserve">ACO Network Name: </t>
+    <t>ACO Network Name:</t>
   </si>
 </sst>
 </file>
@@ -405,12 +405,12 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">

--- a/src/test/DataSheets/Membersummary.xlsx
+++ b/src/test/DataSheets/Membersummary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2436" windowWidth="17844" windowHeight="2928"/>
+    <workbookView xWindow="0" yWindow="2496" windowWidth="17844" windowHeight="2868"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Language:</t>
   </si>
   <si>
-    <t>Address:</t>
-  </si>
-  <si>
     <t>Phone:</t>
   </si>
   <si>
@@ -45,25 +42,28 @@
     <t>View PHI:</t>
   </si>
   <si>
-    <t>Secondary Contacts:</t>
-  </si>
-  <si>
-    <t>Placement:</t>
-  </si>
-  <si>
     <t>Placement Type:</t>
   </si>
   <si>
     <t>PCP:</t>
   </si>
   <si>
-    <t>Opt Out:</t>
-  </si>
-  <si>
-    <t>Medical Coverage:</t>
-  </si>
-  <si>
     <t>ACO Network Name:</t>
+  </si>
+  <si>
+    <t>Secondary Contacts</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Opt Out</t>
+  </si>
+  <si>
+    <t>Medical Coverage</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,57 +440,57 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
